--- a/assets/testfiles/egbilling.xlsx
+++ b/assets/testfiles/egbilling.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louieeeee\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hccportal\assets\testfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915940E9-4B5C-4285-B9A1-6CF062551396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4692A55-25FF-46AA-9972-AE96BB80A405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E77E6F4F-4DDF-4FE1-B30B-A91CD2D60A2D}"/>
+    <workbookView xWindow="7260" yWindow="1410" windowWidth="15375" windowHeight="7875" xr2:uid="{E77E6F4F-4DDF-4FE1-B30B-A91CD2D60A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,13 +84,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,8 +119,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,7 +439,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,8 +551,8 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>22222222</v>
+      <c r="A3" s="1">
+        <v>54545454</v>
       </c>
       <c r="B3">
         <v>6000</v>
@@ -921,5 +928,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/assets/testfiles/egbilling.xlsx
+++ b/assets/testfiles/egbilling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hccportal\assets\testfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4692A55-25FF-46AA-9972-AE96BB80A405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B375CF3B-8060-473F-98D3-53F50A4019BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7260" yWindow="1410" windowWidth="15375" windowHeight="7875" xr2:uid="{E77E6F4F-4DDF-4FE1-B30B-A91CD2D60A2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E77E6F4F-4DDF-4FE1-B30B-A91CD2D60A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -436,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936A603F-E501-47F9-8930-E390CE20A22B}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,7 +505,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>545222</v>
+        <v>8024951</v>
       </c>
       <c r="B2">
         <v>6000</v>
@@ -552,28 +552,28 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>54545454</v>
+        <v>8024952</v>
       </c>
       <c r="B3">
-        <v>6000</v>
+        <v>11111</v>
       </c>
       <c r="C3">
-        <v>3700</v>
+        <v>11111</v>
       </c>
       <c r="D3">
-        <v>1000</v>
+        <v>11111</v>
       </c>
       <c r="E3">
-        <v>350</v>
+        <v>222222</v>
       </c>
       <c r="F3">
-        <v>235</v>
+        <v>9999</v>
       </c>
       <c r="G3">
-        <v>150</v>
+        <v>9999</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>9999</v>
       </c>
       <c r="I3">
         <v>100</v>
@@ -594,12 +594,12 @@
         <v>5000</v>
       </c>
       <c r="O3">
-        <v>6735</v>
+        <v>11111</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>654512</v>
+        <v>8024953</v>
       </c>
       <c r="B4">
         <v>6000</v>
@@ -641,288 +641,6 @@
         <v>5000</v>
       </c>
       <c r="O4">
-        <v>6735</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>545456</v>
-      </c>
-      <c r="B5">
-        <v>6000</v>
-      </c>
-      <c r="C5">
-        <v>3700</v>
-      </c>
-      <c r="D5">
-        <v>1000</v>
-      </c>
-      <c r="E5">
-        <v>350</v>
-      </c>
-      <c r="F5">
-        <v>235</v>
-      </c>
-      <c r="G5">
-        <v>150</v>
-      </c>
-      <c r="H5">
-        <v>100</v>
-      </c>
-      <c r="I5">
-        <v>100</v>
-      </c>
-      <c r="J5">
-        <v>100</v>
-      </c>
-      <c r="K5">
-        <v>11735</v>
-      </c>
-      <c r="L5">
-        <v>5000</v>
-      </c>
-      <c r="M5">
-        <v>11735</v>
-      </c>
-      <c r="N5">
-        <v>5000</v>
-      </c>
-      <c r="O5">
-        <v>6735</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>454565</v>
-      </c>
-      <c r="B6">
-        <v>6000</v>
-      </c>
-      <c r="C6">
-        <v>3700</v>
-      </c>
-      <c r="D6">
-        <v>1000</v>
-      </c>
-      <c r="E6">
-        <v>350</v>
-      </c>
-      <c r="F6">
-        <v>235</v>
-      </c>
-      <c r="G6">
-        <v>150</v>
-      </c>
-      <c r="H6">
-        <v>100</v>
-      </c>
-      <c r="I6">
-        <v>100</v>
-      </c>
-      <c r="J6">
-        <v>100</v>
-      </c>
-      <c r="K6">
-        <v>11735</v>
-      </c>
-      <c r="L6">
-        <v>5000</v>
-      </c>
-      <c r="M6">
-        <v>11735</v>
-      </c>
-      <c r="N6">
-        <v>5000</v>
-      </c>
-      <c r="O6">
-        <v>6735</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>987542</v>
-      </c>
-      <c r="B7">
-        <v>6000</v>
-      </c>
-      <c r="C7">
-        <v>3700</v>
-      </c>
-      <c r="D7">
-        <v>1000</v>
-      </c>
-      <c r="E7">
-        <v>350</v>
-      </c>
-      <c r="F7">
-        <v>235</v>
-      </c>
-      <c r="G7">
-        <v>150</v>
-      </c>
-      <c r="H7">
-        <v>100</v>
-      </c>
-      <c r="I7">
-        <v>100</v>
-      </c>
-      <c r="J7">
-        <v>100</v>
-      </c>
-      <c r="K7">
-        <v>11735</v>
-      </c>
-      <c r="L7">
-        <v>5000</v>
-      </c>
-      <c r="M7">
-        <v>11735</v>
-      </c>
-      <c r="N7">
-        <v>5000</v>
-      </c>
-      <c r="O7">
-        <v>6735</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>321698</v>
-      </c>
-      <c r="B8">
-        <v>6000</v>
-      </c>
-      <c r="C8">
-        <v>3700</v>
-      </c>
-      <c r="D8">
-        <v>1000</v>
-      </c>
-      <c r="E8">
-        <v>350</v>
-      </c>
-      <c r="F8">
-        <v>235</v>
-      </c>
-      <c r="G8">
-        <v>150</v>
-      </c>
-      <c r="H8">
-        <v>100</v>
-      </c>
-      <c r="I8">
-        <v>100</v>
-      </c>
-      <c r="J8">
-        <v>100</v>
-      </c>
-      <c r="K8">
-        <v>11735</v>
-      </c>
-      <c r="L8">
-        <v>5000</v>
-      </c>
-      <c r="M8">
-        <v>11735</v>
-      </c>
-      <c r="N8">
-        <v>5000</v>
-      </c>
-      <c r="O8">
-        <v>6735</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>654654</v>
-      </c>
-      <c r="B9">
-        <v>6000</v>
-      </c>
-      <c r="C9">
-        <v>3700</v>
-      </c>
-      <c r="D9">
-        <v>1000</v>
-      </c>
-      <c r="E9">
-        <v>350</v>
-      </c>
-      <c r="F9">
-        <v>235</v>
-      </c>
-      <c r="G9">
-        <v>150</v>
-      </c>
-      <c r="H9">
-        <v>100</v>
-      </c>
-      <c r="I9">
-        <v>100</v>
-      </c>
-      <c r="J9">
-        <v>100</v>
-      </c>
-      <c r="K9">
-        <v>11735</v>
-      </c>
-      <c r="L9">
-        <v>5000</v>
-      </c>
-      <c r="M9">
-        <v>11735</v>
-      </c>
-      <c r="N9">
-        <v>5000</v>
-      </c>
-      <c r="O9">
-        <v>6735</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>354987</v>
-      </c>
-      <c r="B10">
-        <v>6000</v>
-      </c>
-      <c r="C10">
-        <v>3700</v>
-      </c>
-      <c r="D10">
-        <v>1000</v>
-      </c>
-      <c r="E10">
-        <v>350</v>
-      </c>
-      <c r="F10">
-        <v>235</v>
-      </c>
-      <c r="G10">
-        <v>150</v>
-      </c>
-      <c r="H10">
-        <v>100</v>
-      </c>
-      <c r="I10">
-        <v>100</v>
-      </c>
-      <c r="J10">
-        <v>100</v>
-      </c>
-      <c r="K10">
-        <v>11735</v>
-      </c>
-      <c r="L10">
-        <v>5000</v>
-      </c>
-      <c r="M10">
-        <v>11735</v>
-      </c>
-      <c r="N10">
-        <v>5000</v>
-      </c>
-      <c r="O10">
         <v>6735</v>
       </c>
     </row>

--- a/assets/testfiles/egbilling.xlsx
+++ b/assets/testfiles/egbilling.xlsx
@@ -1,34 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hccportal\assets\testfiles\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B375CF3B-8060-473F-98D3-53F50A4019BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E77E6F4F-4DDF-4FE1-B30B-A91CD2D60A2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -83,7 +64,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -93,8 +74,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -107,7 +88,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -115,13 +96,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -131,9 +141,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -182,7 +189,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -234,7 +241,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -428,18 +435,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936A603F-E501-47F9-8930-E390CE20A22B}">
-  <dimension ref="A1:O4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,6 +460,7 @@
     <col min="8" max="8" width="13.5703125" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
     <col min="14" max="14" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -504,144 +512,2115 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>8024951</v>
-      </c>
-      <c r="B2">
-        <v>6000</v>
-      </c>
-      <c r="C2">
-        <v>3700</v>
-      </c>
-      <c r="D2">
+      <c r="A2" s="3">
+        <v>45202021</v>
+      </c>
+      <c r="K2" s="1">
+        <v>200</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>15362018</v>
+      </c>
+      <c r="K3" s="1">
+        <v>100</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>15372018</v>
+      </c>
+      <c r="K4" s="1">
+        <v>100</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>15382018</v>
+      </c>
+      <c r="K5" s="1">
+        <v>400</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>16802018</v>
+      </c>
+      <c r="K6" s="1">
+        <v>300</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>10782017</v>
+      </c>
+      <c r="K7" s="1">
+        <v>200</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>10782017</v>
+      </c>
+      <c r="K8" s="1">
+        <v>200</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4402017</v>
+      </c>
+      <c r="K9" s="1">
+        <v>200</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>15582018</v>
+      </c>
+      <c r="K10" s="1">
+        <v>200</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>21682019</v>
+      </c>
+      <c r="K11" s="1">
+        <v>400</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>38302020</v>
+      </c>
+      <c r="K12" s="1">
+        <v>80</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>38302020</v>
+      </c>
+      <c r="K13" s="1">
+        <v>50</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>45762021</v>
+      </c>
+      <c r="K14" s="1">
+        <v>100</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>45172021</v>
+      </c>
+      <c r="K15" s="1">
+        <v>200</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>50952021</v>
+      </c>
+      <c r="K16" s="1">
+        <v>200</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>17042018</v>
+      </c>
+      <c r="K17" s="1">
+        <v>200</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>16622018</v>
+      </c>
+      <c r="K18" s="1">
+        <v>200</v>
+      </c>
+      <c r="O18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>15982018</v>
+      </c>
+      <c r="K19" s="1">
+        <v>200</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>17142018</v>
+      </c>
+      <c r="K20" s="1">
+        <v>200</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>20762019</v>
+      </c>
+      <c r="K21" s="1">
+        <v>200</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>16092018</v>
+      </c>
+      <c r="K22" s="1">
+        <v>100</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>54852022</v>
+      </c>
+      <c r="K23" s="1">
+        <v>50</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>10902017</v>
+      </c>
+      <c r="K24" s="1">
+        <v>200</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>10902017</v>
+      </c>
+      <c r="K25" s="1">
+        <v>200</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>46022021</v>
+      </c>
+      <c r="K26" s="1">
+        <v>100</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>46022021</v>
+      </c>
+      <c r="K27" s="1">
+        <v>100</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>38042020</v>
+      </c>
+      <c r="K28" s="1">
+        <v>200</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>16412018</v>
+      </c>
+      <c r="K29" s="1">
+        <v>200</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>63482022</v>
+      </c>
+      <c r="K30" s="2">
+        <v>15710</v>
+      </c>
+      <c r="O30" s="5">
+        <v>13710</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>63482022</v>
+      </c>
+      <c r="K31" s="1">
+        <v>450</v>
+      </c>
+      <c r="O31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>63482022</v>
+      </c>
+      <c r="K32" s="1">
+        <v>670</v>
+      </c>
+      <c r="O32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>47222021</v>
+      </c>
+      <c r="K33" s="2">
+        <v>16460</v>
+      </c>
+      <c r="O33" s="5">
+        <v>14460</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>63232022</v>
+      </c>
+      <c r="K34" s="2">
+        <v>15260</v>
+      </c>
+      <c r="O34" s="5">
+        <v>13260</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>63232022</v>
+      </c>
+      <c r="K35" s="1">
+        <v>30</v>
+      </c>
+      <c r="O35" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>63232022</v>
+      </c>
+      <c r="K36" s="1">
+        <v>50</v>
+      </c>
+      <c r="O36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>59042022</v>
+      </c>
+      <c r="K37" s="2">
+        <v>16460</v>
+      </c>
+      <c r="O37" s="5">
+        <v>14460</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>59042022</v>
+      </c>
+      <c r="K38" s="1">
+        <v>50</v>
+      </c>
+      <c r="O38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>59042022</v>
+      </c>
+      <c r="K39" s="1">
+        <v>450</v>
+      </c>
+      <c r="O39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>59042022</v>
+      </c>
+      <c r="K40" s="1">
+        <v>450</v>
+      </c>
+      <c r="O40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>61692022</v>
+      </c>
+      <c r="K41" s="2">
+        <v>15260</v>
+      </c>
+      <c r="O41" s="5">
+        <v>13260</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>61692022</v>
+      </c>
+      <c r="K42" s="1">
+        <v>30</v>
+      </c>
+      <c r="O42" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>61692022</v>
+      </c>
+      <c r="K43" s="1">
+        <v>450</v>
+      </c>
+      <c r="O43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>64262022</v>
+      </c>
+      <c r="K44" s="2">
+        <v>15260</v>
+      </c>
+      <c r="O44" s="5">
+        <v>13260</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>64262022</v>
+      </c>
+      <c r="K45" s="1">
+        <v>670</v>
+      </c>
+      <c r="O45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>64262022</v>
+      </c>
+      <c r="K46" s="1">
+        <v>450</v>
+      </c>
+      <c r="O46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>47212021</v>
+      </c>
+      <c r="K47" s="2">
+        <v>16460</v>
+      </c>
+      <c r="O47" s="5">
+        <v>14460</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>47212021</v>
+      </c>
+      <c r="K48" s="1">
+        <v>450</v>
+      </c>
+      <c r="O48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>59982022</v>
+      </c>
+      <c r="K49" s="2">
+        <v>15360</v>
+      </c>
+      <c r="O49" s="5">
+        <v>13360</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>59982022</v>
+      </c>
+      <c r="K50" s="1">
+        <v>450</v>
+      </c>
+      <c r="O50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>59982022</v>
+      </c>
+      <c r="K51" s="1">
+        <v>30</v>
+      </c>
+      <c r="O51" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>26262019</v>
+      </c>
+      <c r="K52" s="1">
+        <v>670</v>
+      </c>
+      <c r="O52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>26262019</v>
+      </c>
+      <c r="K53" s="2">
+        <v>3800</v>
+      </c>
+      <c r="O53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>26262019</v>
+      </c>
+      <c r="K54" s="1">
+        <v>200</v>
+      </c>
+      <c r="O54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>34892019</v>
+      </c>
+      <c r="K55" s="2">
+        <v>9635</v>
+      </c>
+      <c r="O55" s="5">
         <v>1000</v>
       </c>
-      <c r="E2">
-        <v>350</v>
-      </c>
-      <c r="F2">
-        <v>235</v>
-      </c>
-      <c r="G2">
-        <v>150</v>
-      </c>
-      <c r="H2">
-        <v>100</v>
-      </c>
-      <c r="I2">
-        <v>100</v>
-      </c>
-      <c r="J2">
-        <v>100</v>
-      </c>
-      <c r="K2">
-        <v>11735</v>
-      </c>
-      <c r="L2">
-        <v>5000</v>
-      </c>
-      <c r="M2">
-        <v>11735</v>
-      </c>
-      <c r="N2">
-        <v>5000</v>
-      </c>
-      <c r="O2">
-        <v>6735</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>8024952</v>
-      </c>
-      <c r="B3">
-        <v>11111</v>
-      </c>
-      <c r="C3">
-        <v>11111</v>
-      </c>
-      <c r="D3">
-        <v>11111</v>
-      </c>
-      <c r="E3">
-        <v>222222</v>
-      </c>
-      <c r="F3">
-        <v>9999</v>
-      </c>
-      <c r="G3">
-        <v>9999</v>
-      </c>
-      <c r="H3">
-        <v>9999</v>
-      </c>
-      <c r="I3">
-        <v>100</v>
-      </c>
-      <c r="J3">
-        <v>100</v>
-      </c>
-      <c r="K3">
-        <v>11735</v>
-      </c>
-      <c r="L3">
-        <v>5000</v>
-      </c>
-      <c r="M3">
-        <v>11735</v>
-      </c>
-      <c r="N3">
-        <v>5000</v>
-      </c>
-      <c r="O3">
-        <v>11111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>8024953</v>
-      </c>
-      <c r="B4">
-        <v>6000</v>
-      </c>
-      <c r="C4">
-        <v>3700</v>
-      </c>
-      <c r="D4">
-        <v>1000</v>
-      </c>
-      <c r="E4">
-        <v>350</v>
-      </c>
-      <c r="F4">
-        <v>235</v>
-      </c>
-      <c r="G4">
-        <v>150</v>
-      </c>
-      <c r="H4">
-        <v>100</v>
-      </c>
-      <c r="I4">
-        <v>100</v>
-      </c>
-      <c r="J4">
-        <v>100</v>
-      </c>
-      <c r="K4">
-        <v>11735</v>
-      </c>
-      <c r="L4">
-        <v>5000</v>
-      </c>
-      <c r="M4">
-        <v>11735</v>
-      </c>
-      <c r="N4">
-        <v>5000</v>
-      </c>
-      <c r="O4">
-        <v>6735</v>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>34892019</v>
+      </c>
+      <c r="K56" s="1">
+        <v>200</v>
+      </c>
+      <c r="O56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>34892019</v>
+      </c>
+      <c r="K57" s="1">
+        <v>670</v>
+      </c>
+      <c r="O57" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>66762022</v>
+      </c>
+      <c r="K58" s="2">
+        <v>15360</v>
+      </c>
+      <c r="O58" s="5">
+        <v>13360</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>66762022</v>
+      </c>
+      <c r="K59" s="1">
+        <v>670</v>
+      </c>
+      <c r="O59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>64502022</v>
+      </c>
+      <c r="K60" s="2">
+        <v>15260</v>
+      </c>
+      <c r="O60" s="5">
+        <v>13260</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>64502022</v>
+      </c>
+      <c r="K61" s="1">
+        <v>670</v>
+      </c>
+      <c r="O61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>46032021</v>
+      </c>
+      <c r="K62" s="2">
+        <v>16460</v>
+      </c>
+      <c r="O62" s="5">
+        <v>14460</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>46032021</v>
+      </c>
+      <c r="K63" s="1">
+        <v>450</v>
+      </c>
+      <c r="O63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>24572019</v>
+      </c>
+      <c r="K64" s="1">
+        <v>670</v>
+      </c>
+      <c r="O64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>24572019</v>
+      </c>
+      <c r="K65" s="2">
+        <v>4000</v>
+      </c>
+      <c r="O65" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>49942021</v>
+      </c>
+      <c r="K66" s="2">
+        <v>16460</v>
+      </c>
+      <c r="O66" s="5">
+        <v>14460</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>49942021</v>
+      </c>
+      <c r="K67" s="1">
+        <v>670</v>
+      </c>
+      <c r="O67" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>58922022</v>
+      </c>
+      <c r="K68" s="2">
+        <v>15260</v>
+      </c>
+      <c r="O68" s="5">
+        <v>13260</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>58922022</v>
+      </c>
+      <c r="K69" s="1">
+        <v>50</v>
+      </c>
+      <c r="O69" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>58922022</v>
+      </c>
+      <c r="K70" s="1">
+        <v>670</v>
+      </c>
+      <c r="O70" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>58922022</v>
+      </c>
+      <c r="K71" s="1">
+        <v>50</v>
+      </c>
+      <c r="O71" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>58922022</v>
+      </c>
+      <c r="K72" s="1">
+        <v>30</v>
+      </c>
+      <c r="O72" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>34752019</v>
+      </c>
+      <c r="K73" s="1">
+        <v>670</v>
+      </c>
+      <c r="O73" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>42182020</v>
+      </c>
+      <c r="K74" s="1">
+        <v>670</v>
+      </c>
+      <c r="O74" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>42182020</v>
+      </c>
+      <c r="K75" s="1">
+        <v>200</v>
+      </c>
+      <c r="O75" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>12422017</v>
+      </c>
+      <c r="K76" s="1">
+        <v>500</v>
+      </c>
+      <c r="O76" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>7842017</v>
+      </c>
+      <c r="K77" s="2">
+        <v>15260</v>
+      </c>
+      <c r="O77" s="5">
+        <v>13260</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>7842017</v>
+      </c>
+      <c r="K78" s="1">
+        <v>30</v>
+      </c>
+      <c r="O78" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>64152022</v>
+      </c>
+      <c r="K79" s="2">
+        <v>15260</v>
+      </c>
+      <c r="O79" s="5">
+        <v>13260</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>64152022</v>
+      </c>
+      <c r="K80" s="1">
+        <v>670</v>
+      </c>
+      <c r="O80" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>34092019</v>
+      </c>
+      <c r="K81" s="2">
+        <v>4000</v>
+      </c>
+      <c r="O81" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>34092019</v>
+      </c>
+      <c r="K82" s="1">
+        <v>670</v>
+      </c>
+      <c r="O82" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>45122021</v>
+      </c>
+      <c r="K83" s="2">
+        <v>16460</v>
+      </c>
+      <c r="O83" s="5">
+        <v>14460</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>45122021</v>
+      </c>
+      <c r="K84" s="1">
+        <v>450</v>
+      </c>
+      <c r="O84" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>4782017</v>
+      </c>
+      <c r="K85" s="2">
+        <v>15260</v>
+      </c>
+      <c r="O85" s="5">
+        <v>13260</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>4782017</v>
+      </c>
+      <c r="K86" s="1">
+        <v>670</v>
+      </c>
+      <c r="O86" s="4">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>4782017</v>
+      </c>
+      <c r="K87" s="1">
+        <v>30</v>
+      </c>
+      <c r="O87" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>47022021</v>
+      </c>
+      <c r="K88" s="2">
+        <v>16460</v>
+      </c>
+      <c r="O88" s="5">
+        <v>14460</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>47022021</v>
+      </c>
+      <c r="K89" s="1">
+        <v>450</v>
+      </c>
+      <c r="O89" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>49302021</v>
+      </c>
+      <c r="K90" s="2">
+        <v>16460</v>
+      </c>
+      <c r="O90" s="5">
+        <v>14460</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>8552017</v>
+      </c>
+      <c r="K91" s="2">
+        <v>15260</v>
+      </c>
+      <c r="O91" s="5">
+        <v>13260</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>8552017</v>
+      </c>
+      <c r="K92" s="1">
+        <v>30</v>
+      </c>
+      <c r="O92" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>63752022</v>
+      </c>
+      <c r="K93" s="1">
+        <v>30</v>
+      </c>
+      <c r="O93" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>48662021</v>
+      </c>
+      <c r="K94" s="1">
+        <v>30</v>
+      </c>
+      <c r="O94" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>33022019</v>
+      </c>
+      <c r="K95" s="2">
+        <v>4000</v>
+      </c>
+      <c r="O95" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>33022019</v>
+      </c>
+      <c r="K96" s="1">
+        <v>670</v>
+      </c>
+      <c r="O96" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>63462022</v>
+      </c>
+      <c r="K97" s="2">
+        <v>15260</v>
+      </c>
+      <c r="O97" s="5">
+        <v>13260</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>63462022</v>
+      </c>
+      <c r="K98" s="1">
+        <v>670</v>
+      </c>
+      <c r="O98" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>23722019</v>
+      </c>
+      <c r="K99" s="2">
+        <v>4000</v>
+      </c>
+      <c r="O99" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>23722019</v>
+      </c>
+      <c r="K100" s="1">
+        <v>670</v>
+      </c>
+      <c r="O100" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>9662017</v>
+      </c>
+      <c r="K101" s="1">
+        <v>670</v>
+      </c>
+      <c r="O101" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>9662017</v>
+      </c>
+      <c r="K102" s="2">
+        <v>4000</v>
+      </c>
+      <c r="O102" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>24172019</v>
+      </c>
+      <c r="K103" s="1">
+        <v>670</v>
+      </c>
+      <c r="O103" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>24172019</v>
+      </c>
+      <c r="K104" s="2">
+        <v>4000</v>
+      </c>
+      <c r="O104" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>23362019</v>
+      </c>
+      <c r="K105" s="1">
+        <v>670</v>
+      </c>
+      <c r="O105" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>23362019</v>
+      </c>
+      <c r="K106" s="2">
+        <v>4000</v>
+      </c>
+      <c r="O106" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>50132021</v>
+      </c>
+      <c r="K107" s="2">
+        <v>11960</v>
+      </c>
+      <c r="O107" s="5">
+        <v>9960</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>50132021</v>
+      </c>
+      <c r="K108" s="1">
+        <v>670</v>
+      </c>
+      <c r="O108" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>31012019</v>
+      </c>
+      <c r="K109" s="1">
+        <v>670</v>
+      </c>
+      <c r="O109" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>43792020</v>
+      </c>
+      <c r="K110" s="2">
+        <v>16760</v>
+      </c>
+      <c r="O110" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>43792020</v>
+      </c>
+      <c r="K111" s="1">
+        <v>670</v>
+      </c>
+      <c r="O111" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>43792020</v>
+      </c>
+      <c r="K112" s="1">
+        <v>200</v>
+      </c>
+      <c r="O112" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>62722022</v>
+      </c>
+      <c r="K113" s="2">
+        <v>14135</v>
+      </c>
+      <c r="O113" s="5">
+        <v>12135</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>31072019</v>
+      </c>
+      <c r="K114" s="1">
+        <v>670</v>
+      </c>
+      <c r="O114" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>50492021</v>
+      </c>
+      <c r="K115" s="1">
+        <v>670</v>
+      </c>
+      <c r="O115" s="4">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <v>41742020</v>
+      </c>
+      <c r="K116" s="1">
+        <v>670</v>
+      </c>
+      <c r="O116" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>41742020</v>
+      </c>
+      <c r="K117" s="1">
+        <v>200</v>
+      </c>
+      <c r="O117" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>52672022</v>
+      </c>
+      <c r="K118" s="1">
+        <v>670</v>
+      </c>
+      <c r="O118" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>52672022</v>
+      </c>
+      <c r="K119" s="1">
+        <v>670</v>
+      </c>
+      <c r="O119" s="4">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>24622019</v>
+      </c>
+      <c r="K120" s="1">
+        <v>670</v>
+      </c>
+      <c r="O120" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <v>43042020</v>
+      </c>
+      <c r="K121" s="1">
+        <v>670</v>
+      </c>
+      <c r="O121" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <v>43042020</v>
+      </c>
+      <c r="K122" s="1">
+        <v>200</v>
+      </c>
+      <c r="O122" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <v>59532022</v>
+      </c>
+      <c r="K123" s="2">
+        <v>15260</v>
+      </c>
+      <c r="O123" s="5">
+        <v>12260</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <v>59532022</v>
+      </c>
+      <c r="K124" s="1">
+        <v>30</v>
+      </c>
+      <c r="O124" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <v>59532022</v>
+      </c>
+      <c r="K125" s="1">
+        <v>670</v>
+      </c>
+      <c r="O125" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <v>18652018</v>
+      </c>
+      <c r="K126" s="2">
+        <v>7760</v>
+      </c>
+      <c r="O126" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <v>18652018</v>
+      </c>
+      <c r="K127" s="1">
+        <v>670</v>
+      </c>
+      <c r="O127" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <v>18652018</v>
+      </c>
+      <c r="K128" s="1">
+        <v>200</v>
+      </c>
+      <c r="O128" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <v>40462020</v>
+      </c>
+      <c r="K129" s="1">
+        <v>670</v>
+      </c>
+      <c r="O129" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <v>40462020</v>
+      </c>
+      <c r="K130" s="1">
+        <v>200</v>
+      </c>
+      <c r="O130" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <v>60892022</v>
+      </c>
+      <c r="K131" s="2">
+        <v>15260</v>
+      </c>
+      <c r="O131" s="5">
+        <v>13260</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
+        <v>60892022</v>
+      </c>
+      <c r="K132" s="1">
+        <v>450</v>
+      </c>
+      <c r="O132" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>49222021</v>
+      </c>
+      <c r="K133" s="2">
+        <v>16460</v>
+      </c>
+      <c r="O133" s="5">
+        <v>14460</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <v>49222021</v>
+      </c>
+      <c r="K134" s="1">
+        <v>670</v>
+      </c>
+      <c r="O134" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <v>24322019</v>
+      </c>
+      <c r="K135" s="1">
+        <v>670</v>
+      </c>
+      <c r="O135" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <v>30452019</v>
+      </c>
+      <c r="K136" s="2">
+        <v>7760</v>
+      </c>
+      <c r="O136" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
+        <v>30452019</v>
+      </c>
+      <c r="K137" s="1">
+        <v>200</v>
+      </c>
+      <c r="O137" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <v>30452019</v>
+      </c>
+      <c r="K138" s="1">
+        <v>670</v>
+      </c>
+      <c r="O138" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
+        <v>42112020</v>
+      </c>
+      <c r="K139" s="2">
+        <v>15260</v>
+      </c>
+      <c r="O139" s="5">
+        <v>12260</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <v>42112020</v>
+      </c>
+      <c r="K140" s="1">
+        <v>30</v>
+      </c>
+      <c r="O140" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <v>43402020</v>
+      </c>
+      <c r="K141" s="2">
+        <v>15260</v>
+      </c>
+      <c r="O141" s="5">
+        <v>13260</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
+        <v>43402020</v>
+      </c>
+      <c r="K142" s="1">
+        <v>670</v>
+      </c>
+      <c r="O142" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
+        <v>43402020</v>
+      </c>
+      <c r="K143" s="1">
+        <v>270</v>
+      </c>
+      <c r="O143" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
+        <v>39292020</v>
+      </c>
+      <c r="K144" s="1">
+        <v>270</v>
+      </c>
+      <c r="O144" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
+        <v>39292020</v>
+      </c>
+      <c r="K145" s="1">
+        <v>670</v>
+      </c>
+      <c r="O145" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
+        <v>30172019</v>
+      </c>
+      <c r="K146" s="1">
+        <v>670</v>
+      </c>
+      <c r="O146" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
+        <v>50732021</v>
+      </c>
+      <c r="K147" s="2">
+        <v>15710</v>
+      </c>
+      <c r="O147" s="5">
+        <v>13710</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
+        <v>50732021</v>
+      </c>
+      <c r="K148" s="1">
+        <v>670</v>
+      </c>
+      <c r="O148" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
+        <v>47602021</v>
+      </c>
+      <c r="K149" s="2">
+        <v>16460</v>
+      </c>
+      <c r="O149" s="5">
+        <v>14460</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
+        <v>47602021</v>
+      </c>
+      <c r="K150" s="1">
+        <v>450</v>
+      </c>
+      <c r="O150" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
+        <v>55252022</v>
+      </c>
+      <c r="K151" s="2">
+        <v>15260</v>
+      </c>
+      <c r="O151" s="5">
+        <v>13260</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
+        <v>55252022</v>
+      </c>
+      <c r="K152" s="1">
+        <v>30</v>
+      </c>
+      <c r="O152" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
+        <v>66252022</v>
+      </c>
+      <c r="K153" s="2">
+        <v>15260</v>
+      </c>
+      <c r="O153" s="5">
+        <v>13260</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
+        <v>66252022</v>
+      </c>
+      <c r="K154" s="1">
+        <v>450</v>
+      </c>
+      <c r="O154" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
+        <v>66252022</v>
+      </c>
+      <c r="K155" s="1">
+        <v>450</v>
+      </c>
+      <c r="O155" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
+        <v>45722021</v>
+      </c>
+      <c r="K156" s="2">
+        <v>17885</v>
+      </c>
+      <c r="O156" s="5">
+        <v>15885</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
+        <v>45722021</v>
+      </c>
+      <c r="K157" s="1">
+        <v>670</v>
+      </c>
+      <c r="O157" s="4">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
+        <v>38612020</v>
+      </c>
+      <c r="K158" s="1">
+        <v>670</v>
+      </c>
+      <c r="O158" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
+        <v>57132022</v>
+      </c>
+      <c r="K159" s="2">
+        <v>15260</v>
+      </c>
+      <c r="O159" s="5">
+        <v>13260</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
+        <v>57132022</v>
+      </c>
+      <c r="K160" s="1">
+        <v>30</v>
+      </c>
+      <c r="O160" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
+        <v>11462017</v>
+      </c>
+      <c r="K161" s="2">
+        <v>2280</v>
+      </c>
+      <c r="O161" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
+        <v>29342019</v>
+      </c>
+      <c r="K162" s="2">
+        <v>15260</v>
+      </c>
+      <c r="O162" s="5">
+        <v>13260</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
+        <v>52682022</v>
+      </c>
+      <c r="K163" s="1">
+        <v>670</v>
+      </c>
+      <c r="O163" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
+        <v>52682022</v>
+      </c>
+      <c r="K164" s="1">
+        <v>0</v>
+      </c>
+      <c r="O164" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
+        <v>41722020</v>
+      </c>
+      <c r="K165" s="1">
+        <v>670</v>
+      </c>
+      <c r="O165" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
+        <v>40812020</v>
+      </c>
+      <c r="K166" s="1">
+        <v>670</v>
+      </c>
+      <c r="O166" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
+        <v>42272020</v>
+      </c>
+      <c r="K167" s="1">
+        <v>180</v>
+      </c>
+      <c r="O167" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
+        <v>42272020</v>
+      </c>
+      <c r="K168" s="1">
+        <v>270</v>
+      </c>
+      <c r="O168" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
+        <v>42272020</v>
+      </c>
+      <c r="K169" s="1">
+        <v>670</v>
+      </c>
+      <c r="O169" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
+        <v>64322022</v>
+      </c>
+      <c r="K170" s="1">
+        <v>670</v>
+      </c>
+      <c r="O170" s="4">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
+        <v>37842020</v>
+      </c>
+      <c r="K171" s="2">
+        <v>15260</v>
+      </c>
+      <c r="O171" s="5">
+        <v>13260</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
+        <v>37842020</v>
+      </c>
+      <c r="K172" s="1">
+        <v>450</v>
+      </c>
+      <c r="O172" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A173" s="3">
+        <v>67482023</v>
+      </c>
+      <c r="K173" s="2">
+        <v>13485</v>
+      </c>
+      <c r="O173" s="5">
+        <v>11485</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
+        <v>48012021</v>
+      </c>
+      <c r="K174" s="2">
+        <v>16460</v>
+      </c>
+      <c r="O174" s="5">
+        <v>9460</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A175" s="3">
+        <v>48012021</v>
+      </c>
+      <c r="K175" s="1">
+        <v>670</v>
+      </c>
+      <c r="O175" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A176" s="3">
+        <v>65732022</v>
+      </c>
+      <c r="K176" s="2">
+        <v>15360</v>
+      </c>
+      <c r="O176" s="5">
+        <v>13360</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
+        <v>65732022</v>
+      </c>
+      <c r="K177" s="1">
+        <v>670</v>
+      </c>
+      <c r="O177" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
+        <v>65732022</v>
+      </c>
+      <c r="K178" s="1">
+        <v>450</v>
+      </c>
+      <c r="O178" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
+        <v>64892022</v>
+      </c>
+      <c r="K179" s="2">
+        <v>15360</v>
+      </c>
+      <c r="O179" s="5">
+        <v>13360</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
+        <v>64892022</v>
+      </c>
+      <c r="K180" s="1">
+        <v>270</v>
+      </c>
+      <c r="O180" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
+        <v>64892022</v>
+      </c>
+      <c r="K181" s="1">
+        <v>670</v>
+      </c>
+      <c r="O181" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
+        <v>26162019</v>
+      </c>
+      <c r="K182" s="1">
+        <v>670</v>
+      </c>
+      <c r="O182" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
+        <v>59962022</v>
+      </c>
+      <c r="K183" s="2">
+        <v>15360</v>
+      </c>
+      <c r="O183" s="5">
+        <v>13360</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
+        <v>59962022</v>
+      </c>
+      <c r="K184" s="1">
+        <v>200</v>
+      </c>
+      <c r="O184" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
+        <v>59962022</v>
+      </c>
+      <c r="K185" s="1">
+        <v>670</v>
+      </c>
+      <c r="O185" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
+        <v>23082019</v>
+      </c>
+      <c r="K186" s="1">
+        <v>670</v>
+      </c>
+      <c r="O186" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
+        <v>44382021</v>
+      </c>
+      <c r="K187" s="2">
+        <v>16460</v>
+      </c>
+      <c r="O187" s="5">
+        <v>14460</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
+        <v>44382021</v>
+      </c>
+      <c r="K188" s="1">
+        <v>450</v>
+      </c>
+      <c r="O188" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
+        <v>29652019</v>
+      </c>
+      <c r="K189" s="2">
+        <v>10760</v>
+      </c>
+      <c r="O189" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
+        <v>29652019</v>
+      </c>
+      <c r="K190" s="1">
+        <v>200</v>
+      </c>
+      <c r="O190" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
+        <v>29652019</v>
+      </c>
+      <c r="K191" s="1">
+        <v>670</v>
+      </c>
+      <c r="O191" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A192" s="3">
+        <v>61562022</v>
+      </c>
+      <c r="K192" s="1">
+        <v>30</v>
+      </c>
+      <c r="O192" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
+        <v>34002019</v>
+      </c>
+      <c r="K193" s="2">
+        <v>8885</v>
+      </c>
+      <c r="O193" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
